--- a/LOGS/10d82d00-b0ab-4898-adb9-49a07cd1c2a7/main_page_service_output/main_pages.xlsx
+++ b/LOGS/10d82d00-b0ab-4898-adb9-49a07cd1c2a7/main_page_service_output/main_pages.xlsx
@@ -1026,10 +1026,10 @@
         <v>1181706</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1222,7 +1222,7 @@
         <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1242,7 +1242,7 @@
         <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1262,7 +1262,7 @@
         <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1279,7 +1279,7 @@
         <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1299,7 +1299,7 @@
         <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1319,7 +1319,7 @@
         <v>60</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1353,7 +1353,7 @@
         <v>60</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1370,7 +1370,7 @@
         <v>60</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:6">
